--- a/jasmlFiles/jasmlFiles_metrics_with_indicators.xlsx
+++ b/jasmlFiles/jasmlFiles_metrics_with_indicators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/681f1eba6f51bb15/Documentos/GitHub/ES-2Sem-2021-Grupo-23/jasmlFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iscteiul365-my.sharepoint.com/personal/pbtso_iscte-iul_pt/Documents/UNIVERSIDADE/3º Ano/2º Semestre/ES/Projeto/ES-2Sem-2021-Grupo-23/jasmlFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_0813815EADD1B1508FDAC660FE9C8528BC73511F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69F46937-23BB-4DF7-BCE1-E714FD96F572}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_0813815EADD1B1508FDAC660FE9C8528BC73511F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{908CDA41-166B-438A-853B-A5D383CD2CC3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="299">
   <si>
     <t>MethodID</t>
   </si>
@@ -913,7 +913,10 @@
     <t>processArgs(String[])</t>
   </si>
   <si>
-    <t>classe</t>
+    <t>toTestClass</t>
+  </si>
+  <si>
+    <t>toTestMethod</t>
   </si>
 </sst>
 </file>
@@ -1241,18 +1244,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J255"/>
+  <dimension ref="A1:K255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="10" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1283,8 +1287,11 @@
       <c r="J1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1315,8 +1322,11 @@
       <c r="J2" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1347,8 +1357,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1379,8 +1392,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1411,8 +1427,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1443,8 +1462,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1475,8 +1497,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1507,8 +1532,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1539,8 +1567,11 @@
       <c r="J9" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1571,8 +1602,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1603,8 +1637,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1635,8 +1672,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1667,8 +1707,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1699,8 +1742,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1731,8 +1777,11 @@
       <c r="J15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1763,8 +1812,11 @@
       <c r="J16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1795,8 +1847,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1827,8 +1882,11 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1859,8 +1917,11 @@
       <c r="J19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1891,8 +1952,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1923,8 +1987,11 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1955,8 +2022,11 @@
       <c r="J22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1987,8 +2057,11 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2051,8 +2127,11 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2083,8 +2162,11 @@
       <c r="J26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2115,8 +2197,11 @@
       <c r="J27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2147,8 +2232,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2179,8 +2267,11 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2211,8 +2302,11 @@
       <c r="J30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2243,8 +2337,11 @@
       <c r="J31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2275,8 +2372,11 @@
       <c r="J32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2307,8 +2407,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2339,8 +2442,11 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2371,8 +2477,11 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2403,8 +2512,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2435,8 +2547,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2467,8 +2582,11 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2499,8 +2617,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2531,8 +2652,11 @@
       <c r="J40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2563,8 +2687,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2595,8 +2722,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2627,8 +2757,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2659,8 +2792,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2691,8 +2827,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2723,8 +2862,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2755,8 +2897,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2787,8 +2932,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2819,8 +2967,11 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2851,8 +3002,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2883,8 +3037,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2915,8 +3072,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2947,8 +3107,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2979,8 +3142,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3011,8 +3177,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3043,8 +3212,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3075,8 +3247,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3107,8 +3282,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3139,8 +3317,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3171,8 +3352,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3203,8 +3387,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3235,8 +3422,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3267,8 +3457,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3299,8 +3492,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3331,8 +3527,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3363,8 +3562,11 @@
       <c r="J66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3395,8 +3597,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3427,8 +3632,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3459,8 +3667,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3491,8 +3702,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3523,8 +3737,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3555,8 +3772,11 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3587,8 +3807,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3619,8 +3842,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3651,8 +3877,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3683,8 +3912,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3715,8 +3947,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3747,8 +3982,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3779,8 +4017,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3811,8 +4052,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3843,8 +4087,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3875,8 +4122,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3907,8 +4157,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3939,8 +4192,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3971,8 +4227,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4003,8 +4262,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4035,8 +4297,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4067,8 +4332,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4099,8 +4367,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4131,8 +4402,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4163,8 +4437,11 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4195,8 +4472,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4227,8 +4507,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4259,8 +4542,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4291,8 +4577,11 @@
       <c r="J95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4323,8 +4612,11 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4355,8 +4647,11 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4387,8 +4682,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4419,8 +4717,11 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4451,8 +4752,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4483,8 +4787,11 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4515,8 +4822,11 @@
       <c r="J102" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4547,8 +4857,11 @@
       <c r="J103" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4579,8 +4892,11 @@
       <c r="J104" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4611,8 +4927,11 @@
       <c r="J105" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4643,8 +4962,11 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4675,8 +4997,11 @@
       <c r="J107" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4707,8 +5032,11 @@
       <c r="J108" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4739,8 +5067,11 @@
       <c r="J109" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4771,8 +5102,11 @@
       <c r="J110" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4803,8 +5137,11 @@
       <c r="J111" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4835,8 +5172,11 @@
       <c r="J112" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4867,8 +5207,11 @@
       <c r="J113" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4899,8 +5242,11 @@
       <c r="J114" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4931,8 +5277,11 @@
       <c r="J115" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4963,8 +5312,11 @@
       <c r="J116" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4995,8 +5347,11 @@
       <c r="J117" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5027,8 +5382,11 @@
       <c r="J118" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5059,8 +5417,11 @@
       <c r="J119" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5091,8 +5452,11 @@
       <c r="J120" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5123,8 +5487,11 @@
       <c r="J121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5155,8 +5522,11 @@
       <c r="J122" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5187,8 +5557,11 @@
       <c r="J123" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5219,8 +5592,11 @@
       <c r="J124" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5251,8 +5627,11 @@
       <c r="J125" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5283,8 +5662,11 @@
       <c r="J126" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5315,8 +5697,11 @@
       <c r="J127" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5347,8 +5732,11 @@
       <c r="J128" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5379,8 +5767,11 @@
       <c r="J129" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5411,8 +5802,11 @@
       <c r="J130" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5443,8 +5837,11 @@
       <c r="J131" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5475,8 +5872,11 @@
       <c r="J132" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5507,8 +5907,11 @@
       <c r="J133" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5539,8 +5942,11 @@
       <c r="J134" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5571,8 +5977,11 @@
       <c r="J135" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5603,8 +6012,11 @@
       <c r="J136" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5635,8 +6047,11 @@
       <c r="J137" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5667,8 +6082,11 @@
       <c r="J138" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5699,8 +6117,11 @@
       <c r="J139" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5731,8 +6152,11 @@
       <c r="J140" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5763,8 +6187,11 @@
       <c r="J141" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5795,8 +6222,11 @@
       <c r="J142" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5827,8 +6257,11 @@
       <c r="J143" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5859,8 +6292,11 @@
       <c r="J144" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5891,8 +6327,11 @@
       <c r="J145" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5923,8 +6362,11 @@
       <c r="J146" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5955,8 +6397,11 @@
       <c r="J147" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5987,8 +6432,11 @@
       <c r="J148" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6019,8 +6467,11 @@
       <c r="J149" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6051,8 +6502,11 @@
       <c r="J150" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6083,8 +6537,11 @@
       <c r="J151" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6115,8 +6572,11 @@
       <c r="J152" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6147,8 +6607,11 @@
       <c r="J153" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6179,8 +6642,11 @@
       <c r="J154" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6211,8 +6677,11 @@
       <c r="J155" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6243,8 +6712,11 @@
       <c r="J156" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6275,8 +6747,11 @@
       <c r="J157" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6307,8 +6782,11 @@
       <c r="J158" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6339,8 +6817,11 @@
       <c r="J159" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6371,8 +6852,11 @@
       <c r="J160" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6403,8 +6887,11 @@
       <c r="J161" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6435,8 +6922,11 @@
       <c r="J162" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6467,8 +6957,11 @@
       <c r="J163" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6499,8 +6992,11 @@
       <c r="J164" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6531,8 +7027,11 @@
       <c r="J165" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6563,8 +7062,11 @@
       <c r="J166" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6595,8 +7097,11 @@
       <c r="J167" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6627,8 +7132,11 @@
       <c r="J168" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6659,8 +7167,11 @@
       <c r="J169" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6691,8 +7202,11 @@
       <c r="J170" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6723,8 +7237,11 @@
       <c r="J171" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6755,8 +7272,11 @@
       <c r="J172" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6787,8 +7307,11 @@
       <c r="J173" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6819,8 +7342,11 @@
       <c r="J174" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6851,8 +7377,11 @@
       <c r="J175" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6883,8 +7412,11 @@
       <c r="J176" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6915,8 +7447,11 @@
       <c r="J177" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6947,8 +7482,11 @@
       <c r="J178" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6979,8 +7517,11 @@
       <c r="J179" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7011,8 +7552,11 @@
       <c r="J180" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7043,8 +7587,11 @@
       <c r="J181" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7075,8 +7622,11 @@
       <c r="J182" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7107,8 +7657,11 @@
       <c r="J183" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7139,8 +7692,11 @@
       <c r="J184" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7171,8 +7727,11 @@
       <c r="J185" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7203,8 +7762,11 @@
       <c r="J186" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7235,8 +7797,11 @@
       <c r="J187" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7267,8 +7832,11 @@
       <c r="J188" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7299,8 +7867,11 @@
       <c r="J189" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7331,8 +7902,11 @@
       <c r="J190" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7363,8 +7937,11 @@
       <c r="J191" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7395,8 +7972,11 @@
       <c r="J192" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7427,8 +8007,11 @@
       <c r="J193" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7459,8 +8042,11 @@
       <c r="J194" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7491,8 +8077,11 @@
       <c r="J195" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7523,8 +8112,11 @@
       <c r="J196" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7555,8 +8147,11 @@
       <c r="J197" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7587,8 +8182,11 @@
       <c r="J198" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7619,8 +8217,11 @@
       <c r="J199" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7651,8 +8252,11 @@
       <c r="J200" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7683,8 +8287,11 @@
       <c r="J201" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7715,8 +8322,11 @@
       <c r="J202" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7747,8 +8357,11 @@
       <c r="J203" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7779,8 +8392,11 @@
       <c r="J204" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7811,8 +8427,11 @@
       <c r="J205" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7843,8 +8462,11 @@
       <c r="J206" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7875,8 +8497,11 @@
       <c r="J207" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7907,8 +8532,11 @@
       <c r="J208" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7939,8 +8567,11 @@
       <c r="J209" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7971,8 +8602,11 @@
       <c r="J210" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8003,8 +8637,11 @@
       <c r="J211" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8035,8 +8672,11 @@
       <c r="J212" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8067,8 +8707,11 @@
       <c r="J213" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8099,8 +8742,11 @@
       <c r="J214" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8131,8 +8777,11 @@
       <c r="J215" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8163,8 +8812,11 @@
       <c r="J216" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8195,8 +8847,11 @@
       <c r="J217" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8227,8 +8882,11 @@
       <c r="J218" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8259,8 +8917,11 @@
       <c r="J219" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8291,8 +8952,11 @@
       <c r="J220" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8323,8 +8987,11 @@
       <c r="J221" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8355,8 +9022,11 @@
       <c r="J222" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8387,8 +9057,11 @@
       <c r="J223" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8419,8 +9092,11 @@
       <c r="J224" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8451,8 +9127,11 @@
       <c r="J225" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -8483,8 +9162,11 @@
       <c r="J226" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -8515,8 +9197,11 @@
       <c r="J227" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -8547,8 +9232,11 @@
       <c r="J228" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -8579,8 +9267,11 @@
       <c r="J229" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -8611,8 +9302,11 @@
       <c r="J230" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -8643,8 +9337,11 @@
       <c r="J231" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -8675,8 +9372,11 @@
       <c r="J232" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -8707,8 +9407,11 @@
       <c r="J233" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -8739,8 +9442,11 @@
       <c r="J234" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8771,8 +9477,11 @@
       <c r="J235" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -8803,8 +9512,11 @@
       <c r="J236" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -8835,8 +9547,11 @@
       <c r="J237" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -8867,8 +9582,11 @@
       <c r="J238" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -8899,8 +9617,11 @@
       <c r="J239" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -8931,8 +9652,11 @@
       <c r="J240" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -8963,8 +9687,11 @@
       <c r="J241" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -8995,8 +9722,11 @@
       <c r="J242" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9027,8 +9757,11 @@
       <c r="J243" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9059,8 +9792,11 @@
       <c r="J244" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9091,8 +9827,11 @@
       <c r="J245" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9123,8 +9862,11 @@
       <c r="J246" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9155,8 +9897,11 @@
       <c r="J247" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9187,8 +9932,11 @@
       <c r="J248" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9219,8 +9967,11 @@
       <c r="J249" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9251,8 +10002,11 @@
       <c r="J250" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9283,8 +10037,11 @@
       <c r="J251" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9315,8 +10072,11 @@
       <c r="J252" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9347,8 +10107,11 @@
       <c r="J253" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9379,8 +10142,11 @@
       <c r="J254" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9409,6 +10175,9 @@
         <v>20</v>
       </c>
       <c r="J255" t="b">
+        <v>0</v>
+      </c>
+      <c r="K255" t="b">
         <v>0</v>
       </c>
     </row>
